--- a/medicine/Mort/Décès_en_1318/Décès_en_1318.xlsx
+++ b/medicine/Mort/Décès_en_1318/Décès_en_1318.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1318</t>
+          <t>Décès_en_1318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -500,23 +512,23 @@
 février : Erik Magnusson, prince suédois, duc de Södermanland (titré aussi duc de Svealand, de Värmland, duc de Västergötland, de Dalsland  et d'Halland du Nord (sv)).
 6 février : Pierre de Pleine-Chassagne, évêque de Rodez et Patriarche latin titulaire de Jérusalem.
 14 février :
-Marguerite de France[1], duchesse consort d'Aquitaine et reine consort d'Angleterre.
+Marguerite de France, duchesse consort d'Aquitaine et reine consort d'Angleterre.
 Henri Ier de Brandebourg, surnommé Henri sans Terre (Heinrich ohne Land), co-régent de la marche de Brandebourg avec son frère Othon IV de Brandebourg.
 14 mars : Wulfing von Stubenberg, évêque de Lavant et de Bamberg.
 26 mai : Fujiwara no Kishi, impératrice consort du Japon.
 juin : John Deydras, imposteur et prétendant au trône d'Angleterre, exécuté.
 23 juin : Gilles Ier Aycelin de Montaigut, archevêque de Narbonne puis de Rouen.
 juillet : Jean IV de Beaumont, gouverneur d’Artois et maréchal de France.
-18 juillet[2] : Rashid al-Din, médecin, historien et homme d'État persan, exécuté.
+18 juillet : Rashid al-Din, médecin, historien et homme d'État persan, exécuté.
 25 juillet : Nicolas Ier d'Opava, duc d'Opava.
-14 août[3] : Jacopo Colonna, cardinal italien.
+14 août : Jacopo Colonna, cardinal italien.
 30 août : Nicolas de Bec-Crespin, Cardinal-prêtre de S. Stefano al Monte Celio.
 11 septembre : Amanieu II d'Armagnac, archevêque d'Auch.
 22 septembre : Albert II de Brunswick-Göttingen,  dit le Gros (der Fette), duc de Brunswick-Lunebourg, prince de Göttingen et prince de Wolfenbüttel.
 14 octobre : Édouard Bruce, comte de Carrick, couronné roi d'Irlande.
 novembre : Ébedjésus de Nisibe, ou Ébedjésu Bar Berika, métropolite de Nisibe et un des auteurs les plus représentatifs de la tradition nestorienne, mais aussi l'un des derniers écrivains importants de langue syriaque.
 25 novembre : Philippe d'Ibelin, sénéchal du royaume de Chypre.
-29 novembre[4] : Heinrich Frauenlob (Heinrich von Meissen, né v.1260), poète allemand.
+29 novembre : Heinrich Frauenlob (Heinrich von Meissen, né v.1260), poète allemand.
 Marie d'Ibelin, reine de Chypre.
 Henri de Bade-Sausenberg, margrave de Bade-Sausenberg et seigneur de Rötteln.
 Llywelyn Bren, baron et rebelle gallois, exécuté.
